--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin Yusnoveri\Desktop\Heavensward\InventoryManagementModel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F50843-A577-4101-9D17-DFB953F59837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D57B87-C811-40E4-B16E-0E9689EAAFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="D306" sqref="D306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +406,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-2</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-3</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-4</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-5</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>-6</v>
@@ -462,98 +462,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10.3</v>
-      </c>
-      <c r="B15">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>11.7</v>
-      </c>
-      <c r="B17">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>12.4</v>
-      </c>
-      <c r="B18">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>13.1</v>
-      </c>
-      <c r="B19">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13.8</v>
-      </c>
-      <c r="B20">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>14.5</v>
-      </c>
-      <c r="B21">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>15.2</v>
-      </c>
-      <c r="B22">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>15.9</v>
-      </c>
-      <c r="B23">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="B24">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>17.3</v>
-      </c>
-      <c r="B25">
-        <v>-18</v>
       </c>
     </row>
   </sheetData>
